--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -393,12 +393,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="17.5703125" customWidth="1" min="1" max="3"/>
+    <col width="17.5703125" customWidth="1" min="1" max="2"/>
+    <col width="35.7109375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -438,34 +439,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vladyslav</t>
+          <t>Anton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Berestetskyi</t>
+          <t>Korchynskyi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>vladyslav.berestetskyi@georgiancollege.ca</t>
+          <t>anton.korchynskyi@georgiancollege.ca</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anton</t>
+          <t>Vladyslav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Korchynskyi</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>anton.korchynskyi@georgiancollege.ca</t>
+          <t>Beresteskyi</t>
         </is>
       </c>
     </row>
